--- a/data/trans_orig/IP25B02_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP25B02_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C4889DF-BE3D-4EE8-B2A5-7B5753498FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC86FAE-DB58-46E3-AA1F-C3949D42045D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{212947A2-9C1D-46B6-842C-333E498FA600}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{672860BB-5440-485D-A949-8DAE1CF643E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="167">
   <si>
     <t>Menores según el número de horas al día que emplean en utilizar aparatos electrónicos en fines de semana / solo 2023 en 2023 (Tasa respuesta: 98,07%)</t>
   </si>
@@ -107,109 +107,109 @@
     <t>25,29%</t>
   </si>
   <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
   </si>
   <si>
     <t>33,16%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
   </si>
   <si>
     <t>25,15%</t>
   </si>
   <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
   </si>
   <si>
     <t>32,95%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
   </si>
   <si>
     <t>30,65%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
   </si>
   <si>
     <t>31,9%</t>
   </si>
   <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
   </si>
   <si>
     <t>24,54%</t>
   </si>
   <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -218,298 +218,295 @@
     <t>20,7%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>18,18%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>28,64%</t>
   </si>
   <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>26,38%</t>
   </si>
   <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
   </si>
   <si>
     <t>27,57%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
   </si>
   <si>
     <t>27,53%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
   </si>
   <si>
     <t>28,34%</t>
   </si>
   <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>23,14%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>26,33%</t>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>33,99%</t>
   </si>
   <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
   </si>
   <si>
     <t>29,16%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>29,52%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>28,25%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
+    <t>32,01%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
   </si>
   <si>
     <t>24,45%</t>
@@ -518,25 +515,25 @@
     <t>21,74%</t>
   </si>
   <si>
-    <t>27,25%</t>
+    <t>27,26%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
   </si>
   <si>
     <t>27,1%</t>
   </si>
   <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -951,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBF489C-3A62-484D-AA40-88C57C5B217B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D249B8B-6BC5-47AD-917C-6D07C8DF8A59}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1938,13 +1935,13 @@
         <v>58729</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H21" s="7">
         <v>62</v>
@@ -1953,10 +1950,10 @@
         <v>40767</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>118</v>
@@ -2213,10 +2210,10 @@
         <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>539</v>
@@ -2225,13 +2222,13 @@
         <v>391658</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2243,13 @@
         <v>175365</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H27" s="7">
         <v>306</v>
@@ -2261,13 +2258,13 @@
         <v>191586</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M27" s="7">
         <v>598</v>
@@ -2276,13 +2273,13 @@
         <v>366952</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2335,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25B02_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP25B02_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DC86FAE-DB58-46E3-AA1F-C3949D42045D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{212BFD4C-CAC1-45BF-BE3D-B0E8806324F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{672860BB-5440-485D-A949-8DAE1CF643E0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{05A3FF4B-0A4C-4679-968A-2AB120F85631}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Menores según el número de horas al día que emplean en utilizar aparatos electrónicos en fines de semana / solo 2023 en 2023 (Tasa respuesta: 98,07%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,475 +65,454 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Más de 3h</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>De 1 a 2h</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>De 1 a 2h</t>
-  </si>
-  <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
   </si>
   <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>25,15%</t>
   </si>
   <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
   </si>
   <si>
     <t>30,65%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
     <t>28,9%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -948,8 +927,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D249B8B-6BC5-47AD-917C-6D07C8DF8A59}">
-  <dimension ref="A1:Q29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF56D63-7A6D-42FF-B525-58EF2E0BAA2A}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1066,194 +1045,202 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5586</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>15810</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>21396</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7">
+        <v>17798</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
         <v>15</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>10564</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>28362</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13721</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>20320</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>34041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D7" s="7">
+        <v>15178</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>14733</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>29911</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1262,253 +1249,255 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="D8" s="7">
+        <v>52283</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I8" s="7">
-        <v>1171</v>
+        <v>61426</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="N8" s="7">
-        <v>1171</v>
+        <v>113709</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7">
-        <v>14718</v>
+        <v>84981</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="I9" s="7">
-        <v>5685</v>
+        <v>113263</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="N9" s="7">
-        <v>20403</v>
+        <v>198243</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="D10" s="7">
-        <v>10730</v>
+        <v>110613</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="I10" s="7">
-        <v>16169</v>
+        <v>142682</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="N10" s="7">
-        <v>26899</v>
+        <v>253295</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="D11" s="7">
-        <v>19175</v>
+        <v>122877</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>182</v>
       </c>
       <c r="I11" s="7">
-        <v>14944</v>
+        <v>134531</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="N11" s="7">
-        <v>34119</v>
+        <v>257407</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>13574</v>
+        <v>130316</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
-        <v>16</v>
+        <v>188</v>
       </c>
       <c r="I12" s="7">
-        <v>11967</v>
+        <v>119606</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>39</v>
+        <v>395</v>
       </c>
       <c r="N12" s="7">
-        <v>25541</v>
+        <v>249922</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1517,255 +1506,255 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>82</v>
+        <v>626</v>
       </c>
       <c r="D13" s="7">
-        <v>58197</v>
+        <v>448787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>65</v>
+        <v>649</v>
       </c>
       <c r="I13" s="7">
-        <v>48764</v>
+        <v>510081</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>147</v>
+        <v>1275</v>
       </c>
       <c r="N13" s="7">
-        <v>106962</v>
+        <v>958868</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>100643</v>
+        <v>23448</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>67399</v>
+        <v>22556</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>192</v>
+        <v>57</v>
       </c>
       <c r="N14" s="7">
-        <v>168042</v>
+        <v>46004</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="D15" s="7">
-        <v>139284</v>
+        <v>34581</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c r="I15" s="7">
-        <v>115606</v>
+        <v>44702</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>329</v>
+        <v>104</v>
       </c>
       <c r="N15" s="7">
-        <v>254891</v>
+        <v>79283</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>133876</v>
+        <v>39651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="I16" s="7">
-        <v>124167</v>
+        <v>62765</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="N16" s="7">
-        <v>258043</v>
+        <v>102417</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7">
-        <v>112511</v>
+        <v>49262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="I17" s="7">
-        <v>130985</v>
+        <v>51479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>395</v>
+        <v>164</v>
       </c>
       <c r="N17" s="7">
-        <v>243496</v>
+        <v>100741</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1774,255 +1763,255 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>649</v>
+        <v>225</v>
       </c>
       <c r="D18" s="7">
-        <v>486314</v>
+        <v>146943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>626</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>438157</v>
+        <v>181502</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>1275</v>
+        <v>460</v>
       </c>
       <c r="N18" s="7">
-        <v>924471</v>
+        <v>328445</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="D19" s="7">
-        <v>21696</v>
+        <v>114015</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="I19" s="7">
-        <v>23797</v>
+        <v>151628</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="N19" s="7">
-        <v>45493</v>
+        <v>265643</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="D20" s="7">
-        <v>43090</v>
+        <v>162992</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="I20" s="7">
-        <v>35544</v>
+        <v>197947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>104</v>
+        <v>467</v>
       </c>
       <c r="N20" s="7">
-        <v>78634</v>
+        <v>360939</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="D21" s="7">
-        <v>58729</v>
+        <v>176249</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="H21" s="7">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="I21" s="7">
-        <v>40767</v>
+        <v>217616</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="M21" s="7">
-        <v>135</v>
+        <v>539</v>
       </c>
       <c r="N21" s="7">
-        <v>99496</v>
+        <v>393865</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="D22" s="7">
-        <v>49280</v>
+        <v>194756</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="I22" s="7">
-        <v>48635</v>
+        <v>185818</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
-        <v>164</v>
+        <v>598</v>
       </c>
       <c r="N22" s="7">
-        <v>97915</v>
+        <v>380574</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,318 +2020,60 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>235</v>
+        <v>916</v>
       </c>
       <c r="D23" s="7">
-        <v>172796</v>
+        <v>648013</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="H23" s="7">
-        <v>225</v>
+        <v>966</v>
       </c>
       <c r="I23" s="7">
-        <v>148742</v>
+        <v>753009</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M23" s="7">
-        <v>460</v>
+        <v>1882</v>
       </c>
       <c r="N23" s="7">
-        <v>321538</v>
+        <v>1401022</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>153</v>
-      </c>
-      <c r="D24" s="7">
-        <v>137058</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H24" s="7">
-        <v>125</v>
-      </c>
-      <c r="I24" s="7">
-        <v>96880</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M24" s="7">
-        <v>278</v>
-      </c>
-      <c r="N24" s="7">
-        <v>233938</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>241</v>
-      </c>
-      <c r="D25" s="7">
-        <v>193105</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H25" s="7">
-        <v>227</v>
-      </c>
-      <c r="I25" s="7">
-        <v>168490</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M25" s="7">
-        <v>468</v>
-      </c>
-      <c r="N25" s="7">
-        <v>361595</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="7">
-        <v>280</v>
-      </c>
-      <c r="D26" s="7">
-        <v>211780</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" s="7">
-        <v>259</v>
-      </c>
-      <c r="I26" s="7">
-        <v>179878</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M26" s="7">
-        <v>539</v>
-      </c>
-      <c r="N26" s="7">
-        <v>391658</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="7">
-        <v>292</v>
-      </c>
-      <c r="D27" s="7">
-        <v>175365</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="A24" t="s">
         <v>159</v>
       </c>
-      <c r="H27" s="7">
-        <v>306</v>
-      </c>
-      <c r="I27" s="7">
-        <v>191586</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M27" s="7">
-        <v>598</v>
-      </c>
-      <c r="N27" s="7">
-        <v>366952</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="7">
-        <v>966</v>
-      </c>
-      <c r="D28" s="7">
-        <v>717308</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="7">
-        <v>917</v>
-      </c>
-      <c r="I28" s="7">
-        <v>636834</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="7">
-        <v>1883</v>
-      </c>
-      <c r="N28" s="7">
-        <v>1354142</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>166</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A24:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
